--- a/admin/view/hello.xlsx
+++ b/admin/view/hello.xlsx
@@ -17,15 +17,12 @@
     <t>Hồ quang Hiêu</t>
   </si>
   <si>
-    <t>Nam</t>
+    <t>male</t>
   </si>
   <si>
     <t>thành đạt</t>
   </si>
   <si>
-    <t>male</t>
-  </si>
-  <si>
     <t>Hoài Lâm</t>
   </si>
   <si>
@@ -35,7 +32,10 @@
     <t>trung quân</t>
   </si>
   <si>
-    <t>trấn thành</t>
+    <t>hiên hồ</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
   <si>
     <t>sơn tùng</t>
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -416,10 +416,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -427,10 +427,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -438,10 +438,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -449,10 +449,10 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -460,10 +460,10 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -474,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -485,7 +485,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
